--- a/Sizing Code/first sizing/first_sizing.xlsx
+++ b/Sizing Code/first sizing/first_sizing.xlsx
@@ -167,8 +167,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -221,10 +221,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +529,7 @@
   <dimension ref="C4:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -814,14 +814,14 @@
         <v>12</v>
       </c>
       <c r="D17" s="1">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="1">
         <f>D17*10000</f>
-        <v>2500000</v>
+        <v>10000000</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>37</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="I19" s="4">
         <f>I17/D12</f>
-        <v>18.475208614068023</v>
+        <v>23.094010767585029</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>40</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="I22" s="1">
         <f>SQRT(F17)</f>
-        <v>1581.1388300841897</v>
+        <v>3162.2776601683795</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>32</v>
@@ -897,7 +897,7 @@
       </c>
       <c r="I23" s="1">
         <f>ROUND(I22/I18,0)</f>
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
@@ -906,7 +906,7 @@
       </c>
       <c r="I24" s="1">
         <f>2*I12/SIN(F18)+I23*I22+(I23-1)*PI()*0.5*I18</f>
-        <v>37502.826371744843</v>
+        <v>141095.36805601485</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>32</v>
@@ -918,7 +918,7 @@
       </c>
       <c r="I25" s="4">
         <f>(I24/I19)/60</f>
-        <v>33.831667032966692</v>
+        <v>101.82681091068687</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>47</v>
